--- a/电子签约平台/流程梳理/7-技术选型.xlsx
+++ b/电子签约平台/流程梳理/7-技术选型.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="php选型" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <r>
       <t>php</t>
@@ -393,6 +393,116 @@
   </si>
   <si>
     <t>优点：稳定性和速度的平衡选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的版本去重构的话，代价更大，风险也更大，并且到时候其实很多开发人员不愿意那么做，宁可选择新开发，也不会去重构已经稳定运行的老系统的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>整体上来说偏向于选择新版本，原因是：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>性能提升，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未来趋势。虽然需要多一些的学习成本，但考虑到作为一个长期项目，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果现在采用比较老的技术的话，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年之后回来看，肯定有点太</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>low</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>了，但那个时候再使用</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -739,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B15"/>
+  <dimension ref="A2:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -809,9 +919,25 @@
         <v>9</v>
       </c>
     </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -835,7 +961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/电子签约平台/流程梳理/7-技术选型.xlsx
+++ b/电子签约平台/流程梳理/7-技术选型.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <r>
       <t>php</t>
@@ -503,6 +503,103 @@
       </rPr>
       <t>了，但那个时候再使用</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面临的问题：主要是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的版本和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nginx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方面，一旦在生产服务器上选择这两个之后，其他项目用其他的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>apache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>来运行的就用不了这个服务器了</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以这个也是适合新项目，独占服务器，如果考虑老项目的兼容部署同一个服务器，那就不要使用这个了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -849,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B20"/>
+  <dimension ref="A2:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -919,19 +1016,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/电子签约平台/流程梳理/7-技术选型.xlsx
+++ b/电子签约平台/流程梳理/7-技术选型.xlsx
@@ -7,16 +7,14 @@
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
-    <sheet name="php选型" sheetId="1" r:id="rId1"/>
-    <sheet name="java选型" sheetId="2" r:id="rId2"/>
-    <sheet name="中间件选型" sheetId="3" r:id="rId3"/>
+    <sheet name="易签云平台技术选型" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <r>
       <t>php</t>
@@ -321,78 +319,6 @@
       </rPr>
       <t>过来的开发人员，需要熟悉下写法，很多地方有变化</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缓存：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>redis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>优点：支持更多的数据类型，比</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>memcache</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>稍微好点</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>队列</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>active MQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优点：稳定性和速度的平衡选择</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -949,7 +875,7 @@
   <dimension ref="A2:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1018,27 +944,27 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1046,64 +972,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/电子签约平台/流程梳理/7-技术选型.xlsx
+++ b/电子签约平台/流程梳理/7-技术选型.xlsx
@@ -872,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B24"/>
+  <dimension ref="A2:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -942,28 +942,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="B24" s="1" t="s">
+    <row r="25" spans="1:2">
+      <c r="B25" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/电子签约平台/流程梳理/7-技术选型.xlsx
+++ b/电子签约平台/流程梳理/7-技术选型.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <r>
       <t>php</t>
@@ -526,6 +526,22 @@
   </si>
   <si>
     <t>所以这个也是适合新项目，独占服务器，如果考虑老项目的兼容部署同一个服务器，那就不要使用这个了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mongodb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要用于存放日志，或者适合键值类型的业务数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持较多的数据类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -872,7 +888,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B25"/>
+  <dimension ref="A2:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
@@ -942,28 +958,54 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>11</v>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>10</v>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="B25" s="1" t="s">
+    <row r="29" spans="1:2">
+      <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/电子签约平台/流程梳理/7-技术选型.xlsx
+++ b/电子签约平台/流程梳理/7-技术选型.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <r>
       <t>php</t>
@@ -179,79 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>暂时不考虑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5.7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，因为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5.7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>目前阿里云的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>rds</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>还不支持，怕后续会有一些麻烦</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>thinkiphp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -542,6 +469,37 @@
   </si>
   <si>
     <t>支持较多的数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于是自己搭建，考虑5.7，最新版，性能高点，支持json结构的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阿里</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>oss</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -888,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B29"/>
+  <dimension ref="A2:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -932,17 +890,17 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="B11" t="s">
-        <v>6</v>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -950,17 +908,17 @@
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -968,12 +926,12 @@
     </row>
     <row r="18" spans="1:2">
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -981,32 +939,46 @@
     </row>
     <row r="21" spans="1:2">
       <c r="B21" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+    <row r="32" spans="1:2">
+      <c r="B32" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="B29" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
